--- a/SchemeIBPRME/SchemeIBMECH.xlsx
+++ b/SchemeIBPRME/SchemeIBMECH.xlsx
@@ -549,19 +549,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002106579</v>
+        <v>0.002245499</v>
       </c>
       <c r="G2" t="n">
-        <v>5.703e-05</v>
+        <v>6.3297e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000322754</v>
+        <v>0.000339063</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007777870000000001</v>
+        <v>0.000824117</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6517e-05</v>
+        <v>5.8381e-05</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -610,19 +610,19 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00225584</v>
+        <v>0.002383662</v>
       </c>
       <c r="G3" t="n">
-        <v>6.9794e-05</v>
+        <v>7.1715e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000363751</v>
+        <v>0.000381694</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000963633</v>
+        <v>0.000960516</v>
       </c>
       <c r="J3" t="n">
-        <v>6.7708e-05</v>
+        <v>7.0526e-05</v>
       </c>
       <c r="K3" t="n">
         <v>34</v>
@@ -671,19 +671,19 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002554991</v>
+        <v>0.002813944</v>
       </c>
       <c r="G4" t="n">
-        <v>7.3703e-05</v>
+        <v>7.972800000000001e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000420413</v>
+        <v>0.000454346</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001145464</v>
+        <v>0.001217346</v>
       </c>
       <c r="J4" t="n">
-        <v>6.9935e-05</v>
+        <v>7.9322e-05</v>
       </c>
       <c r="K4" t="n">
         <v>42</v>
@@ -732,19 +732,19 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005649811</v>
+        <v>0.00560664</v>
       </c>
       <c r="G5" t="n">
-        <v>8.449300000000001e-05</v>
+        <v>8.5078e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00188377</v>
+        <v>0.001876641</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005430048</v>
+        <v>0.005332017</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001225</v>
+        <v>0.000124091</v>
       </c>
       <c r="K5" t="n">
         <v>46</v>
@@ -793,19 +793,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001751322</v>
+        <v>0.001726391</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2897e-05</v>
+        <v>6.0014e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000127806</v>
+        <v>0.000120915</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000195878</v>
+        <v>0.000159534</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2268e-05</v>
+        <v>3.0025e-05</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -854,19 +854,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001765562</v>
+        <v>0.00187668</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6331e-05</v>
+        <v>6.9143e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000144599</v>
+        <v>0.000131336</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000175328</v>
+        <v>0.000168958</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1529e-05</v>
+        <v>3.1405e-05</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
@@ -915,19 +915,19 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001812861</v>
+        <v>0.001625344</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4391e-05</v>
+        <v>6.0773e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00012725</v>
+        <v>0.000118284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000168715</v>
+        <v>0.000156527</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0867e-05</v>
+        <v>3.0996e-05</v>
       </c>
       <c r="K8" t="n">
         <v>30</v>
@@ -976,19 +976,19 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001828347</v>
+        <v>0.001650015</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6386e-05</v>
+        <v>6.0355e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000130165</v>
+        <v>0.000120396</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00017611</v>
+        <v>0.000156843</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1217e-05</v>
+        <v>3.0023e-05</v>
       </c>
       <c r="K9" t="n">
         <v>30</v>
@@ -1037,19 +1037,19 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001851098</v>
+        <v>0.001723371</v>
       </c>
       <c r="G10" t="n">
-        <v>6.634000000000001e-05</v>
+        <v>6.0249e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000134969</v>
+        <v>0.00012397</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000184833</v>
+        <v>0.000160094</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2155e-05</v>
+        <v>2.9758e-05</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1098,19 +1098,19 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002181935</v>
+        <v>0.001633854</v>
       </c>
       <c r="G11" t="n">
-        <v>8.7703e-05</v>
+        <v>6.2153e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000156287</v>
+        <v>0.000122359</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000215585</v>
+        <v>0.000156797</v>
       </c>
       <c r="J11" t="n">
-        <v>3.811e-05</v>
+        <v>3.1122e-05</v>
       </c>
       <c r="K11" t="n">
         <v>30</v>
